--- a/expiration payoff.xlsx
+++ b/expiration payoff.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin\Dropbox\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\vcpe-deal-valuation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4486858-42F6-4475-B79B-3703F4670859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37D5D5CB-1594-4D9A-8E61-6FC414A70CA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -6991,7 +6991,7 @@
                 <a:schemeClr val="accent6"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>(3) The strike price should be zero or positive number.</a:t>
+            <a:t>(3) The strike price should be zero or positive.</a:t>
           </a:r>
         </a:p>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -7022,7 +7022,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>(4) For Binary Call Options, q</a:t>
+            <a:t>(4) For Binary Call Options, </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0">
@@ -7034,7 +7034,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t> &lt;=  Y</a:t>
+            <a:t>Y</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="-25000">
@@ -7046,6 +7046,30 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
+            <a:t>START</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> = Y</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="-25000">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>END</a:t>
           </a:r>
           <a:r>
@@ -7058,10 +7082,10 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>_pre , Y</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="-25000">
+            <a:t>_pre + </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="accent6"/>
               </a:solidFill>
@@ -7070,7 +7094,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>START</a:t>
+            <a:t>q</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0">
@@ -7378,19 +7402,19 @@
   </sheetPr>
   <dimension ref="A6:Q29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A63" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D82" sqref="D82"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A45" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="H79" sqref="H79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="8.88671875" style="2"/>
+    <col min="1" max="2" width="8.86328125" style="2"/>
     <col min="3" max="3" width="8.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.88671875" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.86328125" customWidth="1"/>
+    <col min="5" max="5" width="9.53125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
       <c r="E6" t="s">
         <v>0</v>
       </c>
@@ -7398,7 +7422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
       <c r="E7">
         <v>0</v>
       </c>
@@ -7406,7 +7430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
       <c r="E8">
         <v>10</v>
       </c>
@@ -7414,7 +7438,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
       <c r="E9">
         <v>20</v>
       </c>
@@ -7422,7 +7446,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
       <c r="E10">
         <v>30</v>
       </c>
@@ -7430,7 +7454,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
       <c r="E12" t="s">
         <v>0</v>
       </c>
@@ -7471,7 +7495,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
       <c r="E13" t="s">
         <v>1</v>
       </c>
@@ -7517,7 +7541,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>2</v>
       </c>
@@ -7537,7 +7561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A16" s="3">
         <v>0</v>
       </c>
@@ -7556,7 +7580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" s="3">
         <v>10</v>
       </c>
@@ -7576,7 +7600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" s="3">
         <v>20</v>
       </c>
@@ -7596,7 +7620,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" s="3">
         <v>30</v>
       </c>
@@ -7616,7 +7640,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" s="3">
         <v>40</v>
       </c>
@@ -7639,7 +7663,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" s="3">
         <v>49.9</v>
       </c>
@@ -7657,7 +7681,7 @@
         <v>24.924999999999997</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" s="3">
         <v>50</v>
       </c>
@@ -7678,7 +7702,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" s="3">
         <v>60</v>
       </c>
@@ -7701,7 +7725,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" s="3">
         <v>69.900000000000006</v>
       </c>
@@ -7719,7 +7743,7 @@
         <v>34.925000000000004</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" s="3">
         <v>70</v>
       </c>
@@ -7740,7 +7764,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" s="3">
         <v>80</v>
       </c>
@@ -7760,7 +7784,7 @@
         <v>52.5</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27" s="3">
         <v>90</v>
       </c>
@@ -7780,7 +7804,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28" s="3">
         <v>100</v>
       </c>
@@ -7800,7 +7824,7 @@
         <v>57.5</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29" s="3">
         <v>110</v>
       </c>
